--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/work/Projects/2016_DrosEU_integration/population_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FDCC1-38AC-E542-8868-9DEB9FA7871E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D2337-3329-0E40-8876-A09D8340AD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -2207,10 +2207,10 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8697,7 +8697,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA76">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA76">
     <sortCondition ref="O2:O76"/>
     <sortCondition ref="E2:E76"/>
   </sortState>

--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D2337-3329-0E40-8876-A09D8340AD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73222D29-5F14-E446-93BA-97F5D3CD9D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">popinfo.txt!$G$2:$G$76</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">popinfo.txt!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="435">
   <si>
     <t>mel159_112012_CO</t>
   </si>
@@ -979,9 +985,6 @@
     <t>WA_se</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -1334,13 +1337,19 @@
   </si>
   <si>
     <t>FL_ho_10_fall</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>D. Promislow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1392,6 +1401,13 @@
       <name val="Andale Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1637,7 +1653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1647,6 +1663,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2207,10 +2224,10 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2239,7 +2256,7 @@
         <v>280</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>167</v>
@@ -2308,7 +2325,7 @@
         <v>304</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -2322,7 +2339,7 @@
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>60</v>
@@ -2391,7 +2408,7 @@
         <v>35.7245092148761</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,28 +2422,28 @@
         <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="1">
-        <v>47.61</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-122.33</v>
+      <c r="J3" s="9">
+        <v>47.237130000000001</v>
+      </c>
+      <c r="K3" s="9">
+        <v>-122.39627</v>
       </c>
       <c r="L3" s="3">
         <v>40373</v>
@@ -2448,6 +2465,9 @@
       </c>
       <c r="R3" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>282</v>
@@ -2482,7 +2502,7 @@
         <v>157</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -2551,7 +2571,7 @@
         <v>19.843691902462801</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -2565,7 +2585,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -2634,12 +2654,12 @@
         <v>60.396741321187299</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>173</v>
@@ -2648,10 +2668,10 @@
         <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>70</v>
@@ -2717,12 +2737,12 @@
         <v>66.6805614719392</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>173</v>
@@ -2731,10 +2751,10 @@
         <v>145</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>70</v>
@@ -2800,7 +2820,7 @@
         <v>66.6805614719392</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,7 +2834,7 @@
         <v>154</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>55</v>
@@ -2883,7 +2903,7 @@
         <v>156.01892308047101</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -2897,7 +2917,7 @@
         <v>154</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>56</v>
@@ -2966,7 +2986,7 @@
         <v>33.124367012454002</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -2980,7 +3000,7 @@
         <v>154</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>57</v>
@@ -3049,7 +3069,7 @@
         <v>45.562943519188998</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,7 +3083,7 @@
         <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>58</v>
@@ -3132,7 +3152,7 @@
         <v>26.898886292343001</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,10 +3166,10 @@
         <v>151</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>75</v>
@@ -3179,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P12" s="1">
         <v>39</v>
@@ -3215,12 +3235,12 @@
         <v>38.887126597684002</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>188</v>
@@ -3229,10 +3249,10 @@
         <v>151</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>70</v>
@@ -3298,7 +3318,7 @@
         <v>38.887126597684002</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3312,7 +3332,7 @@
         <v>148</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -3345,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P14" s="1">
         <v>48</v>
@@ -3381,7 +3401,7 @@
         <v>51.8705524387587</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,7 +3415,7 @@
         <v>154</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>61</v>
@@ -3464,7 +3484,7 @@
         <v>45.928287057781297</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3478,7 +3498,7 @@
         <v>154</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
@@ -3547,7 +3567,7 @@
         <v>33.031740486920299</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3630,7 +3650,7 @@
         <v>33.058403838217103</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3713,7 +3733,7 @@
         <v>29.495254833951599</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,7 +3816,7 @@
         <v>58.960129642175303</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,7 +3899,7 @@
         <v>25.253097837099201</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3962,7 +3982,7 @@
         <v>26.140063680014698</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4045,7 +4065,7 @@
         <v>25.274700555831</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4128,7 +4148,7 @@
         <v>44.194905513370102</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4211,7 +4231,7 @@
         <v>27.889549354944801</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4294,7 +4314,7 @@
         <v>27.138471824160799</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,7 +4328,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
@@ -4377,7 +4397,7 @@
         <v>17.418745720975199</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4391,7 +4411,7 @@
         <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -4460,7 +4480,7 @@
         <v>25.4679107012735</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4474,7 +4494,7 @@
         <v>153</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>31</v>
@@ -4543,7 +4563,7 @@
         <v>34.000348531906198</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -4557,7 +4577,7 @@
         <v>153</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
@@ -4626,7 +4646,7 @@
         <v>26.919009044517299</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -4640,7 +4660,7 @@
         <v>152</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>35</v>
@@ -4709,7 +4729,7 @@
         <v>36.698461609689701</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -4723,7 +4743,7 @@
         <v>152</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>34</v>
@@ -4792,7 +4812,7 @@
         <v>20.4677950280043</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -4806,7 +4826,7 @@
         <v>154</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>62</v>
@@ -4875,12 +4895,12 @@
         <v>39.311382980366702</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>195</v>
@@ -4889,7 +4909,7 @@
         <v>154</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
@@ -4958,7 +4978,7 @@
         <v>55.803345186964101</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,7 +4992,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>47</v>
@@ -5041,7 +5061,7 @@
         <v>44.1794810453179</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5055,7 +5075,7 @@
         <v>149</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -5124,7 +5144,7 @@
         <v>17.630851236307901</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5138,7 +5158,7 @@
         <v>149</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>48</v>
@@ -5207,7 +5227,7 @@
         <v>38.786850755405098</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5221,7 +5241,7 @@
         <v>165</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>52</v>
@@ -5290,7 +5310,7 @@
         <v>13.5715376280536</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -5304,7 +5324,7 @@
         <v>165</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>50</v>
@@ -5373,7 +5393,7 @@
         <v>26.625330225330199</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -5387,7 +5407,7 @@
         <v>165</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -5456,7 +5476,7 @@
         <v>25.1270479295729</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -5539,7 +5559,7 @@
         <v>92.251800478077897</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5622,7 +5642,7 @@
         <v>38.879880551868901</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5705,7 +5725,7 @@
         <v>48.481119596012498</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,7 +5808,7 @@
         <v>41.790196350838201</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5871,7 +5891,7 @@
         <v>41.4900076093327</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,7 +5974,7 @@
         <v>32.477407467788701</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6037,7 +6057,7 @@
         <v>31.038144161732099</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6120,7 +6140,7 @@
         <v>36.649456129869598</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6203,7 +6223,7 @@
         <v>48.970739417615498</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6286,7 +6306,7 @@
         <v>36.918896168251997</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6369,7 +6389,7 @@
         <v>35.763247059429801</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6452,7 +6472,7 @@
         <v>27.334754029552201</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6535,7 +6555,7 @@
         <v>31.0023514349948</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6618,7 +6638,7 @@
         <v>71.8172219416724</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6701,7 +6721,7 @@
         <v>39.699560313318599</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6784,7 +6804,7 @@
         <v>94.866583921652094</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6867,7 +6887,7 @@
         <v>58.958217370410601</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6950,7 +6970,7 @@
         <v>46.7605839303558</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7033,7 +7053,7 @@
         <v>51.935486273210699</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7116,7 +7136,7 @@
         <v>52.0588925188434</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7199,7 +7219,7 @@
         <v>70.5064020535808</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,7 +7302,7 @@
         <v>57.385615446995899</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7365,7 +7385,7 @@
         <v>48.519859137926197</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
@@ -7448,7 +7468,7 @@
         <v>65.033527805203306</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
@@ -7531,7 +7551,7 @@
         <v>37.9297675832157</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
@@ -7614,7 +7634,7 @@
         <v>49.294374639029698</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
@@ -7697,7 +7717,7 @@
         <v>55.020360028334103</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
@@ -7780,7 +7800,7 @@
         <v>32.4778747816123</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
@@ -7863,7 +7883,7 @@
         <v>36.482214904206401</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
@@ -7946,7 +7966,7 @@
         <v>49.4605022297646</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
@@ -8029,7 +8049,7 @@
         <v>49.471097271709802</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
@@ -8112,7 +8132,7 @@
         <v>50.875883589777899</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
@@ -8195,7 +8215,7 @@
         <v>118.691776313262</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8278,7 +8298,7 @@
         <v>46.129972718445103</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8361,7 +8381,7 @@
         <v>119.071668464185</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8444,7 +8464,7 @@
         <v>41.753597395215799</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8527,7 +8547,7 @@
         <v>47.3936987639092</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -8541,10 +8561,10 @@
         <v>154</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>70</v>
@@ -8615,7 +8635,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>174</v>
@@ -8624,10 +8644,10 @@
         <v>146</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>70</v>

--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73222D29-5F14-E446-93BA-97F5D3CD9D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B005304F-2626-D549-8512-DA3AE3DB266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13460" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="438">
   <si>
     <t>mel159_112012_CO</t>
   </si>
@@ -1343,13 +1343,22 @@
   </si>
   <si>
     <t>D. Promislow</t>
+  </si>
+  <si>
+    <t>SRX8295554</t>
+  </si>
+  <si>
+    <t>SRX8295556</t>
+  </si>
+  <si>
+    <t>SRX8295555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1408,6 +1417,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1653,7 +1668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1664,6 +1679,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2224,10 +2240,10 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AA42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L78" sqref="L78"/>
+      <selection pane="bottomRight" activeCell="AA78" sqref="AA78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2235,13 +2251,13 @@
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="7" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="17" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" style="1" customWidth="1"/>
-    <col min="21" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="26" width="10" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="18" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="24" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2490,6 +2506,9 @@
       <c r="Z3" s="1">
         <v>40.4</v>
       </c>
+      <c r="AA3" s="10" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -8629,11 +8648,11 @@
       <c r="Z77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA77" s="1" t="s">
-        <v>72</v>
+      <c r="AA77" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>427</v>
       </c>
@@ -8712,8 +8731,8 @@
       <c r="Z78" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA78" s="1" t="s">
-        <v>72</v>
+      <c r="AA78" s="10" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B005304F-2626-D549-8512-DA3AE3DB266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2DE35-0CCC-8041-8553-D220D2D23C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">popinfo.txt!$G$2:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">popinfo.txt!$H$2:$H$77</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">popinfo.txt!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="459">
   <si>
     <t>mel159_112012_CO</t>
   </si>
@@ -1264,9 +1264,6 @@
     <t>PA_07_2011</t>
   </si>
   <si>
-    <t>PA_09_2011</t>
-  </si>
-  <si>
     <t>PA_10_2011</t>
   </si>
   <si>
@@ -1351,7 +1348,73 @@
     <t>SRX8295556</t>
   </si>
   <si>
-    <t>SRX8295555</t>
+    <t>sra_sampleName</t>
+  </si>
+  <si>
+    <t>BA_10_2012</t>
+  </si>
+  <si>
+    <t>BA_07_2012</t>
+  </si>
+  <si>
+    <t>MA_07_2012</t>
+  </si>
+  <si>
+    <t>MA_11_2012</t>
+  </si>
+  <si>
+    <t>NY_07_2012</t>
+  </si>
+  <si>
+    <t>NY_09_2012</t>
+  </si>
+  <si>
+    <t>PA_07_2012</t>
+  </si>
+  <si>
+    <t>VA_07_2012</t>
+  </si>
+  <si>
+    <t>VA_11_2012</t>
+  </si>
+  <si>
+    <t>VI_08_2012</t>
+  </si>
+  <si>
+    <t>VI_10_2012</t>
+  </si>
+  <si>
+    <t>WI_06_2012</t>
+  </si>
+  <si>
+    <t>WI_10_2012</t>
+  </si>
+  <si>
+    <t>ME_rep2</t>
+  </si>
+  <si>
+    <t>FL_rep1</t>
+  </si>
+  <si>
+    <t>FL_rep2</t>
+  </si>
+  <si>
+    <t>ME_rep1</t>
+  </si>
+  <si>
+    <t>PA_7_2009</t>
+  </si>
+  <si>
+    <t>PA_7_2010</t>
+  </si>
+  <si>
+    <t>PA_09_2012</t>
+  </si>
+  <si>
+    <t>PA_9_2012</t>
+  </si>
+  <si>
+    <t>PA_7_2011</t>
   </si>
 </sst>
 </file>
@@ -2237,13 +2300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA78" sqref="AA78"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2251,17 +2314,18 @@
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="18" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="24" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="25.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
+    <col min="8" max="19" width="10.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="10.83203125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -2272,79 +2336,82 @@
         <v>280</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
@@ -2355,59 +2422,59 @@
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>39277</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>7</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2011</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>75</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="1" t="b">
+      <c r="S2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>285</v>
       </c>
@@ -2415,19 +2482,22 @@
         <v>285</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y2" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z2" s="6">
         <v>65.781269927634796</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>35.7245092148761</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>312</v>
       </c>
@@ -2443,74 +2513,77 @@
       <c r="E3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="9">
+        <v>47.237130000000001</v>
+      </c>
+      <c r="L3" s="9">
+        <v>-122.39627</v>
+      </c>
+      <c r="M3" s="3">
+        <v>40373</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>70</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="9">
-        <v>47.237130000000001</v>
-      </c>
-      <c r="K3" s="9">
-        <v>-122.39627</v>
-      </c>
-      <c r="L3" s="3">
-        <v>40373</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="1">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2014</v>
-      </c>
-      <c r="P3" s="1">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>81.87</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>81.87</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>40.4</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -2523,29 +2596,29 @@
       <c r="D4" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>35.770000000000003</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>-78.63</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>72</v>
@@ -2554,26 +2627,26 @@
         <v>72</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>92</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1" t="b">
+      <c r="S4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V4" s="1" t="s">
         <v>284</v>
       </c>
@@ -2583,17 +2656,20 @@
       <c r="X4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z4" s="6">
         <v>38.180641137675799</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>19.843691902462801</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -2604,81 +2680,84 @@
         <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>30.99</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>-83.37</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>38182</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>7</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>51</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="1" t="b">
+      <c r="S5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V5" s="1" t="s">
         <v>285</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z5" s="6">
         <v>117.621114836334</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>60.396741321187299</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>173</v>
@@ -2687,59 +2766,59 @@
         <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>44</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>-69.959999999999994</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>38639</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>86</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="1" t="b">
+      <c r="S6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V6" s="1" t="s">
         <v>284</v>
       </c>
@@ -2749,19 +2828,22 @@
       <c r="X6" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z6" s="6">
         <v>126.861331686954</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>66.6805614719392</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>173</v>
@@ -2770,59 +2852,59 @@
         <v>145</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>44</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>-69.959999999999994</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>38639</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>75</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="1" t="b">
+      <c r="S7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V7" s="1" t="s">
         <v>284</v>
       </c>
@@ -2832,17 +2914,20 @@
       <c r="X7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z7" s="6">
         <v>126.861331686954</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>66.6805614719392</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
@@ -2853,79 +2938,82 @@
         <v>154</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38547</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>7</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>55</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="1" t="b">
+      <c r="S8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V8" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y8" s="6">
+        <v>284</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z8" s="6">
         <v>220.335329233913</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AA8" s="6">
         <v>156.01892308047101</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -2936,79 +3024,82 @@
         <v>154</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38670</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>11</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>74</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="1" t="b">
+      <c r="S9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V9" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y9" s="6">
+        <v>284</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z9" s="6">
         <v>71.255540034808703</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AA9" s="6">
         <v>33.124367012454002</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>245</v>
       </c>
@@ -3019,79 +3110,82 @@
         <v>154</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39035</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>11</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>33</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="1" t="b">
+      <c r="S10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V10" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y10" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z10" s="6">
         <v>88.283632248816602</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AA10" s="6">
         <v>45.562943519188998</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>246</v>
       </c>
@@ -3102,79 +3196,82 @@
         <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>38912</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>7</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>116</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="1" t="b">
+      <c r="S11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V11" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y11" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z11" s="6">
         <v>44.614929204985401</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AA11" s="6">
         <v>26.898886292343001</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>236</v>
       </c>
@@ -3185,81 +3282,84 @@
         <v>151</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>25.5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>-80.477000000000004</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38912</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>7</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>39</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R12" s="1" t="b">
+      <c r="S12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V12" s="1" t="s">
         <v>285</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z12" s="6">
         <v>72.816553120001998</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>38.887126597684002</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>188</v>
@@ -3268,79 +3368,82 @@
         <v>151</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>25.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>-80.477000000000004</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>39065</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>7</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>48</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="1" t="b">
+      <c r="S13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V13" s="1" t="s">
         <v>285</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z13" s="6">
         <v>72.816553120001998</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AA13" s="6">
         <v>38.887126597684002</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
@@ -3351,79 +3454,82 @@
         <v>148</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>33.39</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>-80.34</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38912</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>7</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>48</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="1" t="b">
+      <c r="S14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V14" s="1" t="s">
         <v>285</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z14" s="6">
         <v>101.177630443287</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AA14" s="6">
         <v>51.8705524387587</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -3434,79 +3540,82 @@
         <v>154</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39369</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>47</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="1" t="b">
+      <c r="S15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V15" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y15" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z15" s="6">
         <v>87.975966802780704</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AA15" s="6">
         <v>45.928287057781297</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
@@ -3517,59 +3626,59 @@
         <v>154</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>39400</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>11</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>50</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="1" t="b">
+      <c r="S16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V16" s="1" t="s">
         <v>284</v>
       </c>
@@ -3579,17 +3688,20 @@
       <c r="X16" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z16" s="6">
         <v>65.236209952800493</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AA16" s="6">
         <v>33.031740486920299</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -3605,74 +3717,77 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>38.68</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>-122.04600000000001</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39611</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>13</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>6</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>27</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R17" s="1" t="b">
+      <c r="S17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V17" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z17" s="6">
         <v>68.194598201629006</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AA17" s="6">
         <v>33.058403838217103</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -3688,74 +3803,77 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>38.68</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>-122.04600000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39681</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>22</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>8</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>92</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="1" t="b">
+      <c r="S18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V18" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y18" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z18" s="6">
         <v>58.6873108831916</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AA18" s="6">
         <v>29.495254833951599</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -3771,54 +3889,54 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>38.74</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>-120.74</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>39684</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>25</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>8</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>100</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R19" s="1" t="b">
+      <c r="S19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V19" s="1" t="s">
         <v>284</v>
       </c>
@@ -3828,17 +3946,20 @@
       <c r="X19" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z19" s="6">
         <v>118.110540948555</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AA19" s="6">
         <v>58.960129642175303</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>267</v>
       </c>
@@ -3854,54 +3975,54 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>38.020000000000003</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>-121.2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39721</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>10</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>100</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R20" s="1" t="b">
+      <c r="S20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V20" s="1" t="s">
         <v>284</v>
       </c>
@@ -3911,17 +4032,20 @@
       <c r="X20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z20" s="6">
         <v>50.681316511421798</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>25.253097837099201</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>274</v>
       </c>
@@ -3937,54 +4061,54 @@
       <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>37.97</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>-120.26</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39730</v>
-      </c>
-      <c r="M21" s="1">
-        <v>10</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="1">
+        <v>10</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>116</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R21" s="1" t="b">
+      <c r="S21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V21" s="1" t="s">
         <v>284</v>
       </c>
@@ -3994,17 +4118,20 @@
       <c r="X21" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z21" s="6">
         <v>50.834198649270498</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AA21" s="6">
         <v>26.140063680014698</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>268</v>
       </c>
@@ -4020,54 +4147,54 @@
       <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>38.020000000000003</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>-121.2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39766</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>15</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>11</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>58</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="1" t="b">
+      <c r="S22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V22" s="1" t="s">
         <v>284</v>
       </c>
@@ -4077,17 +4204,20 @@
       <c r="X22" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z22" s="6">
         <v>52.214851098294801</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AA22" s="6">
         <v>25.274700555831</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>275</v>
       </c>
@@ -4103,54 +4233,54 @@
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>37.97</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>-120.26</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39768</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>17</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>11</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>60</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="1" t="b">
+      <c r="S23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V23" s="1" t="s">
         <v>284</v>
       </c>
@@ -4160,17 +4290,20 @@
       <c r="X23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z23" s="6">
         <v>91.864521266278501</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AA23" s="6">
         <v>44.194905513370102</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>260</v>
       </c>
@@ -4186,54 +4319,54 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>38.74</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>-120.74</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39769</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>18</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>11</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>56</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="1" t="b">
+      <c r="S24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V24" s="1" t="s">
         <v>284</v>
       </c>
@@ -4243,17 +4376,20 @@
       <c r="X24" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z24" s="6">
         <v>57.941957777908499</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AA24" s="6">
         <v>27.889549354944801</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -4269,54 +4405,54 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>38.68</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>-122.04600000000001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>39771</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>11</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>92</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R25" s="1" t="b">
+      <c r="S25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V25" s="1" t="s">
         <v>284</v>
       </c>
@@ -4326,17 +4462,20 @@
       <c r="X25" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z25" s="6">
         <v>56.195068444987001</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>27.138471824160799</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
@@ -4347,79 +4486,82 @@
         <v>144</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>41.38</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>2.17</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39641</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>13</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>7</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>55</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R26" s="1" t="b">
+      <c r="S26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V26" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y26" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z26" s="6">
         <v>34.9125394502503</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AA26" s="6">
         <v>17.418745720975199</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>215</v>
       </c>
@@ -4430,79 +4572,82 @@
         <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>41.38</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>2.17</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39735</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>10</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>29</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R27" s="1" t="b">
+      <c r="S27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y27" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z27" s="6">
         <v>51.744041169762099</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="AA27" s="6">
         <v>25.4679107012735</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>239</v>
       </c>
@@ -4513,79 +4658,82 @@
         <v>153</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>42.45</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>-71.67</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>39656</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>28</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>7</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>100</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R28" s="1" t="b">
+      <c r="S28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V28" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y28" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z28" s="6">
         <v>62.154885627863003</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AA28" s="6">
         <v>34.000348531906198</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>240</v>
       </c>
@@ -4596,79 +4744,82 @@
         <v>153</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>42.45</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>-71.67</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>39722</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>2</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>10</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>63</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R29" s="1" t="b">
+      <c r="S29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V29" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y29" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z29" s="6">
         <v>52.004523322579303</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="AA29" s="6">
         <v>26.919009044517299</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -4679,79 +4830,82 @@
         <v>152</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>42.44</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>-76.5</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>39653</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>25</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>7</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>30</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R30" s="1" t="b">
+      <c r="S30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V30" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y30" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z30" s="6">
         <v>75.254392388908201</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AA30" s="6">
         <v>36.698461609689701</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>238</v>
       </c>
@@ -4762,79 +4916,82 @@
         <v>152</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>42.44</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>-76.5</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>39713</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>23</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>9</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>58</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R31" s="1" t="b">
+      <c r="S31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V31" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y31" s="6">
+        <v>285</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z31" s="6">
         <v>39.528569649344497</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AA31" s="6">
         <v>20.4677950280043</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -4845,81 +5002,84 @@
         <v>154</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39644</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>16</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>7</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>115</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R32" s="1" t="b">
+      <c r="S32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V32" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y32" s="6">
+        <v>284</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z32" s="6">
         <v>72.963259932612004</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AA32" s="6">
         <v>39.311382980366702</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>195</v>
@@ -4928,79 +5088,82 @@
         <v>154</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E33" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39703</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>13</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>9</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>50</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R33" s="1" t="b">
+      <c r="S33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V33" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y33" s="6">
+        <v>284</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z33" s="6">
         <v>57.291503695928803</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AA33" s="6">
         <v>55.803345186964101</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -5011,59 +5174,59 @@
         <v>146</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E34" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>38</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>-78.47</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>39646</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>18</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>7</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>95</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R34" s="1" t="b">
+      <c r="S34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V34" s="1" t="s">
         <v>284</v>
       </c>
@@ -5073,102 +5236,105 @@
       <c r="X34" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z34" s="6">
         <v>82.373274821192894</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AA34" s="6">
         <v>44.1794810453179</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AB34" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="1">
+        <v>38</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-78.47</v>
+      </c>
+      <c r="M35" s="3">
+        <v>39756</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>50</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="K35" s="1">
-        <v>16.37</v>
-      </c>
-      <c r="L35" s="3">
-        <v>39662</v>
-      </c>
-      <c r="M35" s="1">
-        <v>3</v>
-      </c>
-      <c r="N35" s="1">
-        <v>8</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P35" s="1">
-        <v>62</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>34.832947626452999</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>17.630851236307901</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>186</v>
@@ -5177,164 +5343,170 @@
         <v>149</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>16.37</v>
+      </c>
+      <c r="M36" s="3">
+        <v>39662</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>8</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>62</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>34.832947626452999</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>17.630851236307901</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K37" s="1">
         <v>48.2</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L37" s="1">
         <v>16.37</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M37" s="3">
         <v>39740</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N37" s="1">
         <v>20</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O37" s="1">
         <v>10</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q37" s="1">
         <v>44</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R36" s="1" t="b">
+      <c r="S37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y36" s="6">
+      <c r="V37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z37" s="6">
         <v>79.869958989067399</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AA37" s="6">
         <v>38.786850755405098</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="1">
-        <v>43.11</v>
-      </c>
-      <c r="K37" s="1">
-        <v>-89.65</v>
-      </c>
-      <c r="L37" s="3">
-        <v>39608</v>
-      </c>
-      <c r="M37" s="1">
-        <v>10</v>
-      </c>
-      <c r="N37" s="1">
-        <v>6</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P37" s="1">
-        <v>83</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>22.349464074920299</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>13.5715376280536</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>178</v>
@@ -5343,81 +5515,84 @@
         <v>165</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>448</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>43.11</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>-89.65</v>
       </c>
-      <c r="L38" s="3">
-        <v>39701</v>
-      </c>
-      <c r="M38" s="1">
-        <v>11</v>
+      <c r="M38" s="3">
+        <v>39608</v>
       </c>
       <c r="N38" s="1">
-        <v>9</v>
-      </c>
-      <c r="O38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="1">
+        <v>6</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P38" s="1">
-        <v>164</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="1">
+        <v>83</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R38" s="1" t="b">
+      <c r="S38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V38" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y38" s="6">
-        <v>54.115101724272897</v>
+        <v>285</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="Z38" s="6">
-        <v>26.625330225330199</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>368</v>
+        <v>22.349464074920299</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>13.5715376280536</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>178</v>
@@ -5426,142 +5601,145 @@
         <v>165</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>109</v>
+        <v>419</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>43.11</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>-89.65</v>
       </c>
-      <c r="L39" s="3">
-        <v>39740</v>
-      </c>
-      <c r="M39" s="1">
-        <v>20</v>
+      <c r="M39" s="3">
+        <v>39701</v>
       </c>
       <c r="N39" s="1">
-        <v>10</v>
-      </c>
-      <c r="O39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="1">
+        <v>9</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="1">
+        <v>164</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R39" s="1" t="b">
+      <c r="S39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="V39" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>284</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>52.088453779437401</v>
+        <v>285</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="Z39" s="6">
-        <v>25.1270479295729</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>363</v>
+        <v>54.115101724272897</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>26.625330225330199</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="D40" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>43.11</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>-89.65</v>
       </c>
-      <c r="L40" s="3">
-        <v>39995</v>
-      </c>
-      <c r="M40" s="1">
-        <v>2</v>
+      <c r="M40" s="3">
+        <v>39740</v>
       </c>
       <c r="N40" s="1">
-        <v>7</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P40" s="1">
-        <v>130</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="1">
+        <v>10</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>100</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R40" s="1" t="b">
+      <c r="S40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="V40" s="1" t="s">
         <v>284</v>
       </c>
@@ -5569,21 +5747,24 @@
         <v>284</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>190.91919801306</v>
+        <v>284</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="Z40" s="6">
-        <v>92.251800478077897</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>345</v>
+        <v>52.088453779437401</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>25.1270479295729</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>179</v>
@@ -5592,247 +5773,256 @@
         <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="1">
+        <v>43.11</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-89.65</v>
+      </c>
+      <c r="M41" s="3">
+        <v>39995</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>7</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>130</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>190.91919801306</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>92.251800478077897</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K42" s="1">
         <v>43.11</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L42" s="1">
         <v>-89.65</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M42" s="3">
         <v>40077</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N42" s="1">
         <v>22</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O42" s="1">
         <v>9</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q42" s="1">
         <v>61</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R41" s="1" t="b">
+      <c r="S42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y41" s="6">
+      <c r="V42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z42" s="6">
         <v>80.198364723720402</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AA42" s="6">
         <v>38.879880551868901</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K43" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L43" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M43" s="3">
         <v>39978</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O43" s="1">
         <v>6</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q43" s="1">
         <v>54</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R42" s="1" t="b">
+      <c r="S43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y42" s="6">
+      <c r="V43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z43" s="6">
         <v>101.986331263484</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AA43" s="6">
         <v>48.481119596012498</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" s="1">
-        <v>46.49</v>
-      </c>
-      <c r="K43" s="1">
-        <v>30.71</v>
-      </c>
-      <c r="L43" s="3">
-        <v>40100</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="1">
-        <v>10</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P43" s="1">
-        <v>61</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>83.905523892961597</v>
-      </c>
-      <c r="Z43" s="6">
-        <v>41.790196350838201</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>199</v>
@@ -5841,828 +6031,858 @@
         <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="1">
+        <v>46.49</v>
+      </c>
+      <c r="L44" s="1">
+        <v>30.71</v>
+      </c>
+      <c r="M44" s="3">
+        <v>40100</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" s="1">
+        <v>10</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>61</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>83.905523892961597</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>41.790196350838201</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K45" s="1">
         <v>46.49</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L45" s="1">
         <v>30.71</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M45" s="3">
         <v>39947</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O45" s="1">
         <v>5</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q45" s="1">
         <v>37</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R44" s="1" t="b">
+      <c r="S45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y44" s="6">
+      <c r="V45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z45" s="6">
         <v>84.424433300408595</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AA45" s="6">
         <v>41.4900076093327</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K46" s="1">
         <v>38.68</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L46" s="1">
         <v>-122.04600000000001</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M46" s="3">
         <v>39939</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N46" s="1">
         <v>7</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O46" s="1">
         <v>5</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q46" s="1">
         <v>50</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R45" s="1" t="b">
+      <c r="S46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y45" s="6">
+      <c r="V46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z46" s="6">
         <v>64.621047444441004</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AA46" s="6">
         <v>32.477407467788701</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K47" s="1">
         <v>37.97</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L47" s="1">
         <v>-120.26</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M47" s="3">
         <v>39946</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N47" s="1">
         <v>14</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O47" s="1">
         <v>5</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q47" s="1">
         <v>98</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="1" t="b">
+      <c r="S47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U47" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y46" s="6">
+      <c r="V47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z47" s="6">
         <v>63.030366349866298</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AA47" s="6">
         <v>31.038144161732099</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AB47" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K48" s="1">
         <v>38.74</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L48" s="1">
         <v>-120.74</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M48" s="3">
         <v>40054</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N48" s="1">
         <v>30</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O48" s="1">
         <v>8</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q48" s="1">
         <v>88</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R47" s="1" t="b">
+      <c r="S48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="U48" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y47" s="6">
+      <c r="V48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z48" s="6">
         <v>71.490525672749996</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AA48" s="6">
         <v>36.649456129869598</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AB48" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K49" s="1">
         <v>37.97</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L49" s="1">
         <v>-120.26</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M49" s="3">
         <v>40055</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N49" s="1">
         <v>31</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O49" s="1">
         <v>8</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q49" s="1">
         <v>100</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R48" s="1" t="b">
+      <c r="S49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U48" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y48" s="6">
+      <c r="V49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z49" s="6">
         <v>91.894918756288703</v>
       </c>
-      <c r="Z48" s="6">
+      <c r="AA49" s="6">
         <v>48.970739417615498</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K50" s="1">
         <v>38.020000000000003</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L50" s="1">
         <v>-121.2</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M50" s="3">
         <v>40058</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N50" s="1">
         <v>3</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O50" s="1">
         <v>9</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q50" s="1">
         <v>72</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R49" s="1" t="b">
+      <c r="S50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="T50" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y49" s="6">
+      <c r="V50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z50" s="6">
         <v>73.914536622563801</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AA50" s="6">
         <v>36.918896168251997</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AB50" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K51" s="1">
         <v>38.68</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L51" s="1">
         <v>-122.04600000000001</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M51" s="3">
         <v>40056</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N51" s="1">
         <v>1</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O51" s="1">
         <v>9</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q51" s="1">
         <v>57</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R50" s="1" t="b">
+      <c r="S51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y50" s="6">
+      <c r="V51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z51" s="6">
         <v>71.806300596637996</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="AA51" s="6">
         <v>35.763247059429801</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K52" s="1">
         <v>37.97</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L52" s="1">
         <v>-120.26</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M52" s="3">
         <v>40154</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N52" s="1">
         <v>8</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O52" s="1">
         <v>12</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q52" s="1">
         <v>100</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R51" s="1" t="b">
+      <c r="S52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U51" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y51" s="6">
+      <c r="V52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z52" s="6">
         <v>56.302130277456897</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AA52" s="6">
         <v>27.334754029552201</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K53" s="1">
         <v>38.74</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L53" s="1">
         <v>-120.74</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M53" s="3">
         <v>40162</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N53" s="1">
         <v>16</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O53" s="1">
         <v>12</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q53" s="1">
         <v>72</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R52" s="1" t="b">
+      <c r="S53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="T53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y52" s="6">
+      <c r="V53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z53" s="6">
         <v>62.821713913318803</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AA53" s="6">
         <v>31.0023514349948</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AB53" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J53" s="1">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="K53" s="1">
-        <v>-83.36</v>
-      </c>
-      <c r="L53" s="3">
-        <v>40465</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N53" s="1">
-        <v>10</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P53" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y53" s="6">
-        <v>155.342563247838</v>
-      </c>
-      <c r="Z53" s="6">
-        <v>71.8172219416724</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>169</v>
@@ -6671,164 +6891,170 @@
         <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="1">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="L54" s="1">
+        <v>-83.36</v>
+      </c>
+      <c r="M54" s="3">
+        <v>40465</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O54" s="1">
+        <v>10</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>99</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>155.342563247838</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>71.8172219416724</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K55" s="1">
         <v>33.950000000000003</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L55" s="1">
         <v>-83.36</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M55" s="3">
         <v>40343</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O55" s="1">
         <v>6</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q55" s="1">
         <v>44</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R54" s="1" t="b">
+      <c r="S55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U54" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y54" s="6">
+      <c r="V55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z55" s="6">
         <v>89.213552266763301</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AA55" s="6">
         <v>39.699560313318599</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AB55" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" s="1">
-        <v>42.1111</v>
-      </c>
-      <c r="K55" s="1">
-        <v>-86.448300000000003</v>
-      </c>
-      <c r="L55" s="3">
-        <v>40486</v>
-      </c>
-      <c r="M55" s="1">
-        <v>5</v>
-      </c>
-      <c r="N55" s="1">
-        <v>11</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P55" s="1">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y55" s="6">
-        <v>203.184161918531</v>
-      </c>
-      <c r="Z55" s="6">
-        <v>94.866583921652094</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>172</v>
@@ -6837,164 +7063,170 @@
         <v>171</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" s="1">
+        <v>42.1111</v>
+      </c>
+      <c r="L56" s="1">
+        <v>-86.448300000000003</v>
+      </c>
+      <c r="M56" s="3">
+        <v>40486</v>
+      </c>
+      <c r="N56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>11</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>34</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>203.184161918531</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>94.866583921652094</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K57" s="1">
         <v>42.1111</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L57" s="1">
         <v>-86.448300000000003</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M57" s="3">
         <v>40384</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N57" s="1">
         <v>26</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O57" s="1">
         <v>7</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q57" s="1">
         <v>106</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R56" s="1" t="b">
+      <c r="S57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="T57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y56" s="6">
+      <c r="V57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z57" s="6">
         <v>127.236392299161</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="AA57" s="6">
         <v>58.958217370410601</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J57" s="1">
-        <v>38</v>
-      </c>
-      <c r="K57" s="1">
-        <v>-78.47</v>
-      </c>
-      <c r="L57" s="3">
-        <v>40464</v>
-      </c>
-      <c r="M57" s="1">
-        <v>14</v>
-      </c>
-      <c r="N57" s="1">
-        <v>10</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P57" s="1">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>95.743539424710804</v>
-      </c>
-      <c r="Z57" s="6">
-        <v>46.7605839303558</v>
-      </c>
-      <c r="AA57" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>181</v>
@@ -7003,164 +7235,170 @@
         <v>146</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="1">
+        <v>38</v>
+      </c>
+      <c r="L58" s="1">
+        <v>-78.47</v>
+      </c>
+      <c r="M58" s="3">
+        <v>40464</v>
+      </c>
+      <c r="N58" s="1">
+        <v>14</v>
+      </c>
+      <c r="O58" s="1">
+        <v>10</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>76</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>95.743539424710804</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>46.7605839303558</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K59" s="1">
         <v>38</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L59" s="1">
         <v>-78.47</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M59" s="3">
         <v>40353</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N59" s="1">
         <v>25</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O59" s="1">
         <v>6</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q59" s="1">
         <v>104</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R58" s="1" t="b">
+      <c r="S59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="T59" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y58" s="6">
+      <c r="V59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z59" s="6">
         <v>102.041668870395</v>
       </c>
-      <c r="Z58" s="6">
+      <c r="AA59" s="6">
         <v>51.935486273210699</v>
       </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="1">
-        <v>43.11</v>
-      </c>
-      <c r="K59" s="1">
-        <v>-89.65</v>
-      </c>
-      <c r="L59" s="3">
-        <v>40353</v>
-      </c>
-      <c r="M59" s="1">
-        <v>25</v>
-      </c>
-      <c r="N59" s="1">
-        <v>6</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P59" s="1">
-        <v>130</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y59" s="6">
-        <v>108.420051024779</v>
-      </c>
-      <c r="Z59" s="6">
-        <v>52.0588925188434</v>
-      </c>
-      <c r="AA59" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>182</v>
@@ -7169,164 +7407,170 @@
         <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="1">
+        <v>43.11</v>
+      </c>
+      <c r="L60" s="1">
+        <v>-89.65</v>
+      </c>
+      <c r="M60" s="3">
+        <v>40353</v>
+      </c>
+      <c r="N60" s="1">
+        <v>25</v>
+      </c>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>130</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>108.420051024779</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>52.0588925188434</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K61" s="1">
         <v>43.11</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L61" s="1">
         <v>-89.65</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M61" s="3">
         <v>40438</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N61" s="1">
         <v>18</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O61" s="1">
         <v>9</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q61" s="1">
         <v>61</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R60" s="1" t="b">
+      <c r="S61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="T61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="U61" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y60" s="6">
+      <c r="V61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z61" s="6">
         <v>144.31194490397999</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="AA61" s="6">
         <v>70.5064020535808</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J61" s="1">
-        <v>42.45</v>
-      </c>
-      <c r="K61" s="1">
-        <v>-71.67</v>
-      </c>
-      <c r="L61" s="3">
-        <v>40470</v>
-      </c>
-      <c r="M61" s="1">
-        <v>20</v>
-      </c>
-      <c r="N61" s="1">
-        <v>10</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P61" s="1">
-        <v>90</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y61" s="6">
-        <v>118.644883264878</v>
-      </c>
-      <c r="Z61" s="6">
-        <v>57.385615446995899</v>
-      </c>
-      <c r="AA61" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>191</v>
@@ -7335,164 +7579,170 @@
         <v>153</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="1">
+        <v>42.45</v>
+      </c>
+      <c r="L62" s="1">
+        <v>-71.67</v>
+      </c>
+      <c r="M62" s="3">
+        <v>40470</v>
+      </c>
+      <c r="N62" s="1">
+        <v>20</v>
+      </c>
+      <c r="O62" s="1">
+        <v>10</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>90</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>118.644883264878</v>
+      </c>
+      <c r="AA62" s="6">
+        <v>57.385615446995899</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K63" s="1">
         <v>42.45</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L63" s="1">
         <v>-71.67</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M63" s="3">
         <v>40378</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N63" s="1">
         <v>20</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O63" s="1">
         <v>7</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q63" s="1">
         <v>32</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R62" s="1" t="b">
+      <c r="S63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="U63" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U62" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y62" s="6">
+      <c r="V63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z63" s="6">
         <v>98.673511918569602</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AA63" s="6">
         <v>48.519859137926197</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63" s="1">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="K63" s="1">
-        <v>-75.41</v>
-      </c>
-      <c r="L63" s="3">
-        <v>40467</v>
-      </c>
-      <c r="M63" s="1">
-        <v>17</v>
-      </c>
-      <c r="N63" s="1">
-        <v>10</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P63" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y63" s="6">
-        <v>133.12809708165599</v>
-      </c>
-      <c r="Z63" s="6">
-        <v>65.033527805203306</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>197</v>
@@ -7501,164 +7751,170 @@
         <v>154</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="L64" s="1">
+        <v>-75.41</v>
+      </c>
+      <c r="M64" s="3">
+        <v>40467</v>
+      </c>
+      <c r="N64" s="1">
+        <v>17</v>
+      </c>
+      <c r="O64" s="1">
+        <v>10</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>50</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z64" s="6">
+        <v>133.12809708165599</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>65.033527805203306</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K65" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L65" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L64" s="3">
+      <c r="M65" s="3">
         <v>40355</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N65" s="1">
         <v>27</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O65" s="1">
         <v>6</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q65" s="1">
         <v>92</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R64" s="1" t="b">
+      <c r="S65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="U65" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U64" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y64" s="6">
+      <c r="V65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z65" s="6">
         <v>75.002857451355098</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="AA65" s="6">
         <v>37.9297675832157</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J65" s="1">
-        <v>40.793394999999997</v>
-      </c>
-      <c r="K65" s="1">
-        <v>-77.860000999999997</v>
-      </c>
-      <c r="L65" s="3">
-        <v>40466</v>
-      </c>
-      <c r="M65" s="1">
-        <v>16</v>
-      </c>
-      <c r="N65" s="1">
-        <v>10</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P65" s="1">
-        <v>67</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W65" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y65" s="6">
-        <v>104.28501653345501</v>
-      </c>
-      <c r="Z65" s="6">
-        <v>49.294374639029698</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>203</v>
@@ -7667,164 +7923,170 @@
         <v>158</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="1">
+        <v>40.793394999999997</v>
+      </c>
+      <c r="L66" s="1">
+        <v>-77.860000999999997</v>
+      </c>
+      <c r="M66" s="3">
+        <v>40466</v>
+      </c>
+      <c r="N66" s="1">
+        <v>16</v>
+      </c>
+      <c r="O66" s="1">
+        <v>10</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>67</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>104.28501653345501</v>
+      </c>
+      <c r="AA66" s="6">
+        <v>49.294374639029698</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K67" s="1">
         <v>40.793394999999997</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L67" s="1">
         <v>-77.860000999999997</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M67" s="3">
         <v>40346</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O67" s="1">
         <v>6</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q67" s="1">
         <v>45</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R66" s="1" t="b">
+      <c r="S67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U66" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y66" s="6">
+      <c r="V67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z67" s="6">
         <v>116.547672507588</v>
       </c>
-      <c r="Z66" s="6">
+      <c r="AA67" s="6">
         <v>55.020360028334103</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J67" s="1">
-        <v>39.202831000000003</v>
-      </c>
-      <c r="K67" s="1">
-        <v>-95.741527000000005</v>
-      </c>
-      <c r="L67" s="3">
-        <v>40472</v>
-      </c>
-      <c r="M67" s="1">
-        <v>22</v>
-      </c>
-      <c r="N67" s="1">
-        <v>10</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P67" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y67" s="6">
-        <v>65.858245994618798</v>
-      </c>
-      <c r="Z67" s="6">
-        <v>32.4778747816123</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>208</v>
@@ -7833,164 +8095,170 @@
         <v>161</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="1">
+        <v>39.202831000000003</v>
+      </c>
+      <c r="L68" s="1">
+        <v>-95.741527000000005</v>
+      </c>
+      <c r="M68" s="3">
+        <v>40472</v>
+      </c>
+      <c r="N68" s="1">
+        <v>22</v>
+      </c>
+      <c r="O68" s="1">
+        <v>10</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>48</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>65.858245994618798</v>
+      </c>
+      <c r="AA68" s="6">
+        <v>32.4778747816123</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K69" s="1">
         <v>39.091343299999998</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L69" s="1">
         <v>-95.624650900000006</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M69" s="3">
         <v>40350</v>
       </c>
-      <c r="M68" s="1">
+      <c r="N69" s="1">
         <v>22</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O69" s="1">
         <v>6</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q69" s="1">
         <v>72</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R68" s="1" t="b">
+      <c r="S69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T68" s="1" t="s">
+      <c r="U69" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U68" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y68" s="6">
+      <c r="V69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z69" s="6">
         <v>76.676745905315698</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AA69" s="6">
         <v>36.482214904206401</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AB69" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J69" s="1">
-        <v>38</v>
-      </c>
-      <c r="K69" s="1">
-        <v>-78.47</v>
-      </c>
-      <c r="L69" s="3">
-        <v>40834</v>
-      </c>
-      <c r="M69" s="1">
-        <v>19</v>
-      </c>
-      <c r="N69" s="1">
-        <v>10</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P69" s="1">
-        <v>89</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>98.388553868460207</v>
-      </c>
-      <c r="Z69" s="6">
-        <v>49.4605022297646</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>180</v>
@@ -7999,164 +8267,170 @@
         <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="1">
+        <v>38</v>
+      </c>
+      <c r="L70" s="1">
+        <v>-78.47</v>
+      </c>
+      <c r="M70" s="3">
+        <v>40834</v>
+      </c>
+      <c r="N70" s="1">
+        <v>19</v>
+      </c>
+      <c r="O70" s="1">
+        <v>10</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>89</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>98.388553868460207</v>
+      </c>
+      <c r="AA70" s="6">
+        <v>49.4605022297646</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K71" s="1">
         <v>38</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L71" s="1">
         <v>-78.47</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M71" s="3">
         <v>40724</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N71" s="1">
         <v>1</v>
       </c>
-      <c r="N70" s="1">
+      <c r="O71" s="1">
         <v>7</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q71" s="1">
         <v>65</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="1" t="b">
+      <c r="S71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T70" s="1" t="s">
+      <c r="U71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U70" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y70" s="6">
+      <c r="V71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z71" s="6">
         <v>104.384833607291</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AA71" s="6">
         <v>49.471097271709802</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AB71" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J71" s="1">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="K71" s="1">
-        <v>-75.41</v>
-      </c>
-      <c r="L71" s="3">
-        <v>40830</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N71" s="1">
-        <v>10</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P71" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y71" s="6">
-        <v>106.83400145130101</v>
-      </c>
-      <c r="Z71" s="6">
-        <v>50.875883589777899</v>
-      </c>
-      <c r="AA71" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>198</v>
@@ -8165,247 +8439,256 @@
         <v>154</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K72" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="L72" s="1">
+        <v>-75.41</v>
+      </c>
+      <c r="M72" s="3">
+        <v>40830</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O72" s="1">
+        <v>10</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>52</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z72" s="6">
+        <v>106.83400145130101</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>50.875883589777899</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K73" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L73" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M73" s="3">
         <v>40738</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O73" s="1">
         <v>7</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q73" s="1">
         <v>74</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R72" s="1" t="b">
+      <c r="S73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S72" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T72" s="1" t="s">
+      <c r="U73" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U72" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y72" s="6">
+      <c r="V73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z73" s="6">
         <v>212.40609578265401</v>
       </c>
-      <c r="Z72" s="6">
+      <c r="AA73" s="6">
         <v>118.691776313262</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AB73" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K74" s="1">
         <v>40.793394999999997</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L74" s="1">
         <v>-77.860000999999997</v>
       </c>
-      <c r="L73" s="3">
+      <c r="M74" s="3">
         <v>40741</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O74" s="1">
         <v>7</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P73" s="1">
+      <c r="Q74" s="1">
         <v>47</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R73" s="1" t="b">
+      <c r="S74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S73" s="1" t="s">
+      <c r="T74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T73" s="1" t="s">
+      <c r="U74" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y73" s="6">
+      <c r="V74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z74" s="6">
         <v>95.868949812784095</v>
       </c>
-      <c r="Z73" s="6">
+      <c r="AA74" s="6">
         <v>46.129972718445103</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AB74" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J74" s="1">
-        <v>46.53</v>
-      </c>
-      <c r="K74" s="1">
-        <v>-80.959999999999994</v>
-      </c>
-      <c r="L74" s="3">
-        <v>40757</v>
-      </c>
-      <c r="M74" s="1">
-        <v>3</v>
-      </c>
-      <c r="N74" s="1">
-        <v>8</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P74" s="1">
-        <v>108</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y74" s="6">
-        <v>214.91154522507799</v>
-      </c>
-      <c r="Z74" s="6">
-        <v>119.071668464185</v>
-      </c>
-      <c r="AA74" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>207</v>
@@ -8414,304 +8697,313 @@
         <v>160</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75" s="1">
+        <v>46.53</v>
+      </c>
+      <c r="L75" s="1">
+        <v>-80.959999999999994</v>
+      </c>
+      <c r="M75" s="3">
+        <v>40757</v>
+      </c>
+      <c r="N75" s="1">
+        <v>3</v>
+      </c>
+      <c r="O75" s="1">
+        <v>8</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>108</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>214.91154522507799</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>119.071668464185</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K76" s="1">
         <v>46.53</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L76" s="1">
         <v>-80.959999999999994</v>
       </c>
-      <c r="L75" s="3">
+      <c r="M76" s="3">
         <v>40815</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N76" s="1">
         <v>30</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O76" s="1">
         <v>9</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q76" s="1">
         <v>110</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R75" s="1" t="b">
+      <c r="S76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S75" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T75" s="1" t="s">
+      <c r="U76" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U75" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y75" s="6">
+      <c r="V76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z76" s="6">
         <v>86.231056945776203</v>
       </c>
-      <c r="Z75" s="6">
+      <c r="AA76" s="6">
         <v>41.753597395215799</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AB76" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K77" s="1">
         <v>40.11</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L77" s="1">
         <v>-88.21</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M77" s="3">
         <v>40734</v>
       </c>
-      <c r="M76" s="1">
+      <c r="N77" s="1">
         <v>11</v>
       </c>
-      <c r="N76" s="1">
+      <c r="O77" s="1">
         <v>7</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P76" s="1">
+      <c r="Q77" s="1">
         <v>184</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R76" s="1" t="b">
+      <c r="S77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="U77" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y76" s="6">
+      <c r="V77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z77" s="6">
         <v>97.065744732311799</v>
       </c>
-      <c r="Z76" s="6">
+      <c r="AA77" s="6">
         <v>47.3936987639092</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AB77" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="D78" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J77" s="1">
+      <c r="K78" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="K77" s="1">
+      <c r="L78" s="1">
         <v>-75.41</v>
       </c>
-      <c r="L77" s="3">
+      <c r="M78" s="3">
         <v>39730</v>
       </c>
-      <c r="M77" s="1">
+      <c r="N78" s="1">
         <v>10</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O78" s="1">
         <v>10</v>
       </c>
-      <c r="O77" s="1">
+      <c r="P78" s="1">
         <v>2012</v>
       </c>
-      <c r="P77" s="1">
+      <c r="Q78" s="1">
         <v>100</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R77" s="1" t="b">
+      <c r="S78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA77" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J78" s="1">
-        <v>38</v>
-      </c>
-      <c r="K78" s="1">
-        <v>-78.47</v>
-      </c>
-      <c r="L78" s="3">
-        <v>39756</v>
-      </c>
-      <c r="M78" s="1">
-        <v>5</v>
-      </c>
-      <c r="N78" s="1">
-        <v>11</v>
-      </c>
-      <c r="O78" s="1">
-        <v>2012</v>
-      </c>
-      <c r="P78" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>72</v>
@@ -8731,14 +9023,17 @@
       <c r="Z78" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA78" s="10" t="s">
-        <v>437</v>
+      <c r="AA78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB78" s="10" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA76">
-    <sortCondition ref="O2:O76"/>
-    <sortCondition ref="E2:E76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB77">
+    <sortCondition ref="P2:P77"/>
+    <sortCondition ref="F2:F77"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2DE35-0CCC-8041-8553-D220D2D23C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BB950-010F-A144-88CE-2A853F3BDDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12860" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="461">
   <si>
     <t>mel159_112012_CO</t>
   </si>
@@ -1415,6 +1415,12 @@
   </si>
   <si>
     <t>PA_7_2011</t>
+  </si>
+  <si>
+    <t>PA_10_2012</t>
+  </si>
+  <si>
+    <t>mel14TWA7</t>
   </si>
 </sst>
 </file>
@@ -2303,10 +2309,10 @@
   <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2508,7 +2514,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>390</v>
@@ -8954,8 +8960,8 @@
       <c r="C78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>412</v>
+      <c r="D78" t="s">
+        <v>459</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>412</v>

--- a/populationInfo/vcf_popinfo_Oct2018.xlsx
+++ b/populationInfo/vcf_popinfo_Oct2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST/populationInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BB950-010F-A144-88CE-2A853F3BDDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0251573-F377-FF44-95DB-80D6C1C69B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="460" windowWidth="35640" windowHeight="19180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popinfo.txt" sheetId="1" r:id="rId1"/>
@@ -2309,10 +2309,10 @@
   <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2323,7 +2323,9 @@
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="6" width="25.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="19" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="10.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
     <col min="21" max="21" width="24.6640625" style="1" customWidth="1"/>
     <col min="22" max="25" width="10.83203125" style="1" customWidth="1"/>
